--- a/biology/Zoologie/Cynthiacetus/Cynthiacetus.xlsx
+++ b/biology/Zoologie/Cynthiacetus/Cynthiacetus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynthiacetus est un genre éteint de baleines primitives appartenant à la famille des Basilosauridae, dont les représentants furent retrouvés sur les côtes pacifiques des États-Unis et du Pérou.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le crâne des membres de Cynthiacetus ressemble fortement aux crânes de Basilosaurus, bien que Cynthiacetus ne possède pas de vertèbres allongées. Le Cynthiacetus est de taille moyenne comparé à d'autres basilosauridés, étant plus petit que le Masracetus, mais plus grand que le Saghacetus[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le crâne des membres de Cynthiacetus ressemble fortement aux crânes de Basilosaurus, bien que Cynthiacetus ne possède pas de vertèbres allongées. Le Cynthiacetus est de taille moyenne comparé à d'autres basilosauridés, étant plus petit que le Masracetus, mais plus grand que le Saghacetus,.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Découverte et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afin d'éviter un nomen dubium, le genre Cynthiacetus fut créé en 2005 par Mark Uhen lors de la découverte du premier spécimen au Mississippi[3]. D'autres squelettes incomplets sont également trouvés en Alabama, en Géorgie, en Floride, en Caroline du Nord[4] et en Égypte[réf. nécessaire].
-L'espèce Cynthiacetus peruvianus, première espèce de Basilosauridae découverte en Amérique du Sud, diffère de Cynthiacetus maxwelli par le nombre de vertèbres thoraciques, présentes en plus grand nombre dans l'espèce péruvienne, ainsi que par le nombre de cuspides au niveau des prémolaires inférieures[5]. 
-Ces fossiles datent d'il y a 41,3 à 33,9 millions d'années, durant l'Éocène supérieur[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afin d'éviter un nomen dubium, le genre Cynthiacetus fut créé en 2005 par Mark Uhen lors de la découverte du premier spécimen au Mississippi. D'autres squelettes incomplets sont également trouvés en Alabama, en Géorgie, en Floride, en Caroline du Nord et en Égypte[réf. nécessaire].
+L'espèce Cynthiacetus peruvianus, première espèce de Basilosauridae découverte en Amérique du Sud, diffère de Cynthiacetus maxwelli par le nombre de vertèbres thoraciques, présentes en plus grand nombre dans l'espèce péruvienne, ainsi que par le nombre de cuspides au niveau des prémolaires inférieures. 
+Ces fossiles datent d'il y a 41,3 à 33,9 millions d'années, durant l'Éocène supérieur.
 </t>
         </is>
       </c>
